--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -1,128 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6439D469-30F7-404F-9F32-E3BA4A4D0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="31725" yWindow="3540" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>文库名称</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_1</t>
-  </si>
-  <si>
-    <t>华大DNB制备</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_2</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_3</t>
-  </si>
-  <si>
-    <t>HHCM2023082500004</t>
-  </si>
-  <si>
-    <t>HM2308250007</t>
-  </si>
-  <si>
-    <t>HM2308250008</t>
-  </si>
-  <si>
-    <t>HM2308250009</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_4</t>
-  </si>
-  <si>
-    <t>HM2308250010</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_5</t>
-  </si>
-  <si>
-    <t>HM2308250011</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_6</t>
-  </si>
-  <si>
-    <t>HM2308250012</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_7</t>
-  </si>
-  <si>
-    <t>HM2308250013</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_8</t>
-  </si>
-  <si>
-    <t>HM2308250014</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_9</t>
-  </si>
-  <si>
-    <t>HM2308250004</t>
-  </si>
-  <si>
-    <t>HM2308250005</t>
-  </si>
-  <si>
-    <t>test_postcyclmix_10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -443,174 +408,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>文库名称</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" t="s">
-        <v>8</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HM2309080001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HHCM2023090800001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HM2309080002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HHCM2023090800001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HM2309080003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HHCM2023090800001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HM2309080004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HHCM2023090800001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HM2309080005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HHCM2023090800001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,116 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HM2309080001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_4</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HHCM2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HM2309080002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HHCM2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HM2309080003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HHCM2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HM2309080004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HHCM2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HM2309080005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>HHCM2023090800001</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HM2309080014</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HHCM2023090800003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HM2309080015</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HHCM2023090800003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HM2309080011</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HHCM2023090800003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HM2309080012</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HHCM2023090800003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HM2309080013</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HHCM2023090800003</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HM2309080014</t>
+          <t>HM2309110001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_postcyclmix_2</t>
+          <t>test_postcyclmix_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HHCM2023090800003</t>
+          <t>HHCM2023091100001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HM2309080015</t>
+          <t>HM2309110002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_postcyclmix_3</t>
+          <t>test_postcyclmix_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HHCM2023090800003</t>
+          <t>HHCM2023091100001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HM2309080011</t>
+          <t>HM2309110003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_postcyclmix_4</t>
+          <t>test_postcyclmix_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HHCM2023090800003</t>
+          <t>HHCM2023091100001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HM2309080012</t>
+          <t>HM2309110004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_postcyclmix_5</t>
+          <t>test_postcyclmix_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HHCM2023090800003</t>
+          <t>HHCM2023091100001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HM2309080013</t>
+          <t>HM2309110005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_postcyclmix_1</t>
+          <t>test_postcyclmix_5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HHCM2023090800003</t>
+          <t>HHCM2023091100001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HM2309110001</t>
+          <t>HM2309120006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,14 +461,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HHCM2023091100001</t>
+          <t>HHCM2023091200002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HM2309110002</t>
+          <t>HM2309120007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HHCM2023091100001</t>
+          <t>HHCM2023091200002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HM2309110003</t>
+          <t>HM2309120008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -505,14 +505,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HHCM2023091100001</t>
+          <t>HHCM2023091200002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HM2309110004</t>
+          <t>HM2309120009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,14 +527,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HHCM2023091100001</t>
+          <t>HHCM2023091200002</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HM2309110005</t>
+          <t>HM2309120010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HHCM2023091100001</t>
+          <t>HHCM2023091200002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HM2309120006</t>
+          <t>HM2309150001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,14 +461,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HHCM2023091200002</t>
+          <t>HHCM2023091500001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HM2309120007</t>
+          <t>HM2309150002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HHCM2023091200002</t>
+          <t>HHCM2023091500001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HM2309120008</t>
+          <t>HM2309150003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -505,14 +505,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HHCM2023091200002</t>
+          <t>HHCM2023091500001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HM2309120009</t>
+          <t>HM2309150004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -527,14 +527,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HHCM2023091200002</t>
+          <t>HHCM2023091500001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HM2309120010</t>
+          <t>HM2309150005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HHCM2023091200002</t>
+          <t>HHCM2023091500001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -1,40 +1,428 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>文库名称</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>HM2308250011</t>
+  </si>
+  <si>
+    <t>test_postcyclmix_4</t>
+  </si>
+  <si>
+    <t>华大DNB制备</t>
+  </si>
+  <si>
+    <t>HHCM2023091800002</t>
+  </si>
+  <si>
+    <t>HM2308250010</t>
+  </si>
+  <si>
+    <t>test_postcyclmix_5</t>
+  </si>
+  <si>
+    <t>HM2308250009</t>
+  </si>
+  <si>
+    <t>test_postcyclmix_1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,85 +430,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,157 +1019,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="64.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>文库名称</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HM2309150001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HHCM2023091500001</t>
-        </is>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HM2309150002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HHCM2023091500001</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HM2309150003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HHCM2023091500001</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HM2309150004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HHCM2023091500001</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HM2309150005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>test_postcyclmix_5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华大DNB制备</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>HHCM2023091500001</t>
-        </is>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -1,34 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37706D4-0757-4809-A1C3-CFF69E50921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="32100" yWindow="3045" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>文库名称</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>HM2309220001</t>
+  </si>
+  <si>
+    <t>HM2309220002</t>
+  </si>
+  <si>
+    <t>HM2309220003</t>
+  </si>
+  <si>
+    <t>HM2309220004</t>
+  </si>
+  <si>
+    <t>HM2309220005</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +95,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,42 +399,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>文库名称</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -1,83 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37706D4-0757-4809-A1C3-CFF69E50921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="3045" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>文库名称</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>HM2309220001</t>
-  </si>
-  <si>
-    <t>HM2309220002</t>
-  </si>
-  <si>
-    <t>HM2309220003</t>
-  </si>
-  <si>
-    <t>HM2309220004</t>
-  </si>
-  <si>
-    <t>HM2309220005</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -95,23 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,62 +408,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>文库名称</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HM2401150001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HHCM2024011500001</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HM2401150002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HHCM2024011500001</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HM2401150003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HHCM2024011500001</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HM2401150004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HHCM2024011500001</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HM2401150005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_postcyclmix_5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华大DNB制备</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HHCM2024011500001</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HM2401150001</t>
+          <t>HM2310270028</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_postcyclmix_1</t>
+          <t>test_postcyclmix_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HHCM2024011500001</t>
+          <t>HHCM2023102700006</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HM2401150002</t>
+          <t>HM2310270026</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_postcyclmix_2</t>
+          <t>test_postcyclmix_5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HHCM2024011500001</t>
+          <t>HHCM2023102700006</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HM2401150003</t>
+          <t>HM2310270027</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_postcyclmix_3</t>
+          <t>test_postcyclmix_1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HHCM2024011500001</t>
+          <t>HHCM2023102700006</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HM2401150004</t>
+          <t>HM2310270029</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_postcyclmix_4</t>
+          <t>test_postcyclmix_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HHCM2024011500001</t>
+          <t>HHCM2023102700006</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HM2401150005</t>
+          <t>HM2310270030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_postcyclmix_5</t>
+          <t>test_postcyclmix_4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HHCM2024011500001</t>
+          <t>HHCM2023102700006</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HM2310270028</t>
+          <t>HM2401160001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_postcyclmix_2</t>
+          <t>test_postcyclmix_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HHCM2023102700006</t>
+          <t>HHCM2024011600001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HM2310270026</t>
+          <t>HM2401160002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_postcyclmix_5</t>
+          <t>test_postcyclmix_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HHCM2023102700006</t>
+          <t>HHCM2024011600001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HM2310270027</t>
+          <t>HM2401160003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_postcyclmix_1</t>
+          <t>test_postcyclmix_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HHCM2023102700006</t>
+          <t>HHCM2024011600001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HM2310270029</t>
+          <t>HM2401160004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_postcyclmix_3</t>
+          <t>test_postcyclmix_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HHCM2023102700006</t>
+          <t>HHCM2024011600001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HM2310270030</t>
+          <t>HM2401160005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_postcyclmix_4</t>
+          <t>test_postcyclmix_5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HHCM2023102700006</t>
+          <t>HHCM2024011600001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HM2401160001</t>
+          <t>HM2404290051</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_postcyclmix_1</t>
+          <t>test_postcyclmix_3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HHCM2024011600001</t>
+          <t>HHCM2024042900001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HM2401160002</t>
+          <t>HM2404290052</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_postcyclmix_2</t>
+          <t>test_postcyclmix_5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HHCM2024011600001</t>
+          <t>HHCM2024042900001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HM2401160003</t>
+          <t>HM2404290049</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_postcyclmix_3</t>
+          <t>test_postcyclmix_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HHCM2024011600001</t>
+          <t>HHCM2024042900001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HM2401160004</t>
+          <t>HM2404290050</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_postcyclmix_4</t>
+          <t>test_postcyclmix_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HHCM2024011600001</t>
+          <t>HHCM2024042900001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HM2401160005</t>
+          <t>HM2404290048</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_postcyclmix_5</t>
+          <t>test_postcyclmix_1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HHCM2024011600001</t>
+          <t>HHCM2024042900001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/dnbpremix_lims_id.xlsx
+++ b/data/excel_doc/dnbpremix_lims_id.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HM2404290051</t>
+          <t>HM2405210003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_postcyclmix_3</t>
+          <t>test_postcyclmix_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HHCM2024042900001</t>
+          <t>HHCM2024052100001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HM2404290052</t>
+          <t>HM2405210004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_postcyclmix_5</t>
+          <t>test_postcyclmix_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HHCM2024042900001</t>
+          <t>HHCM2024052100001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HM2404290049</t>
+          <t>HM2405210001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HHCM2024042900001</t>
+          <t>HHCM2024052100001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HM2404290050</t>
+          <t>HM2405210002</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_postcyclmix_2</t>
+          <t>test_postcyclmix_5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HHCM2024042900001</t>
+          <t>HHCM2024052100001</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HM2404290048</t>
+          <t>HM2405210005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_postcyclmix_1</t>
+          <t>test_postcyclmix_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HHCM2024042900001</t>
+          <t>HHCM2024052100001</t>
         </is>
       </c>
     </row>
